--- a/modern_comparison.xlsx
+++ b/modern_comparison.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjbowen\Dropbox\HypoMirror\Soil_C_modeling\GJB_BigBendPaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjbowen\Dropbox\HypoMirror\Soil_C_modeling\GJB_BigBendPaper\soilCCModern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="3" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="83">
   <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Clumped T</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -53,15 +50,6 @@
     <t>DL01</t>
   </si>
   <si>
-    <t>depth (cm)</t>
-  </si>
-  <si>
-    <t>d13C (measured)</t>
-  </si>
-  <si>
-    <t>d18O (measured)</t>
-  </si>
-  <si>
     <t>pCO2</t>
   </si>
   <si>
@@ -279,14 +267,30 @@
   </si>
   <si>
     <t>CC1</t>
+  </si>
+  <si>
+    <t>depth.cm</t>
+  </si>
+  <si>
+    <t>d13C.measured</t>
+  </si>
+  <si>
+    <t>d18O.measured</t>
+  </si>
+  <si>
+    <t>D47.measured</t>
+  </si>
+  <si>
+    <t>D47.se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -337,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,6 +351,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,36 +687,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <f>0-(32+52/60+40/3600)</f>
@@ -735,12 +742,12 @@
         <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <f>-(33+6.235/60)</f>
@@ -766,12 +773,12 @@
         <v>280</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <f>-33-5.442/60</f>
@@ -797,12 +804,12 @@
         <v>280</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <f>-32-48.84/60</f>
@@ -828,12 +835,12 @@
         <v>280</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <f>-32-49.401/60</f>
@@ -859,12 +866,12 @@
         <v>280</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>-32-43.807/60</f>
@@ -890,12 +897,12 @@
         <v>280</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <f>-32-38.437/60</f>
@@ -921,12 +928,12 @@
         <v>280</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <f>-32-39.72/60</f>
@@ -952,12 +959,12 @@
         <v>280</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <f>-32-46.14/60</f>
@@ -983,12 +990,12 @@
         <v>280</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <f>-32-50.09/60</f>
@@ -1014,12 +1021,12 @@
         <v>280</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <f>-32-50.52/60</f>
@@ -1045,12 +1052,12 @@
         <v>280</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <f>-32-50.7/60</f>
@@ -1076,12 +1083,12 @@
         <v>280</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <f>-32-48.709/60</f>
@@ -1107,12 +1114,12 @@
         <v>280</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <f>-32-48/72/60</f>
@@ -1138,12 +1145,12 @@
         <v>280</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>51.36</v>
@@ -1155,15 +1162,15 @@
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>67</v>
@@ -1172,15 +1179,15 @@
         <v>-158</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>42.27</v>
@@ -1192,15 +1199,15 @@
         <v>2500</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>-29.973199999999999</v>
@@ -1215,12 +1222,12 @@
         <v>14.4</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>-30.045100000000001</v>
@@ -1232,12 +1239,12 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>-29.9876</v>
@@ -1249,12 +1256,12 @@
         <v>850</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>-29.857600000000001</v>
@@ -1266,12 +1273,12 @@
         <v>1300</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>-29.932300000000001</v>
@@ -1283,12 +1290,12 @@
         <v>1500</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>-29.982800000000001</v>
@@ -1300,12 +1307,12 @@
         <v>1700</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>-29.9543</v>
@@ -1320,12 +1327,12 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>-29.974699999999999</v>
@@ -1337,12 +1344,12 @@
         <v>2100</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>-30.0532</v>
@@ -1354,12 +1361,12 @@
         <v>2300</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>34.917999999999999</v>
@@ -1377,12 +1384,12 @@
         <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>34.603999999999999</v>
@@ -1400,12 +1407,12 @@
         <v>140</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>52.57</v>
@@ -1423,15 +1430,15 @@
         <v>480</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>51.72</v>
@@ -1449,15 +1456,15 @@
         <v>580</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>51.63</v>
@@ -1475,15 +1482,15 @@
         <v>525</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>48.58</v>
@@ -1501,15 +1508,15 @@
         <v>510</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>47.27</v>
@@ -1527,15 +1534,15 @@
         <v>420</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>45.03</v>
@@ -1553,15 +1560,15 @@
         <v>550</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>36.979999999999997</v>
@@ -1576,12 +1583,12 @@
         <v>11.6</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>36.984999999999999</v>
@@ -1596,12 +1603,12 @@
         <v>13.2</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>37.01</v>
@@ -1616,12 +1623,12 @@
         <v>15.9</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>36.96</v>
@@ -1636,15 +1643,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>36.94</v>
@@ -1659,15 +1666,15 @@
         <v>19.5</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>36.21</v>
@@ -1682,15 +1689,15 @@
         <v>21.5</v>
       </c>
       <c r="I41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>36.200000000000003</v>
@@ -1705,15 +1712,15 @@
         <v>9.4</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>36.200000000000003</v>
@@ -1728,15 +1735,15 @@
         <v>7.9</v>
       </c>
       <c r="I43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B44">
         <v>37.35</v>
@@ -1751,15 +1758,15 @@
         <v>12.6</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>37.36</v>
@@ -1774,15 +1781,15 @@
         <v>9.6</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <f>31+46.881/60</f>
@@ -1802,12 +1809,12 @@
         <v>446</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <f>31+27.299/60</f>
@@ -1827,12 +1834,12 @@
         <v>700</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <f>38+49.048/60</f>
@@ -1852,7 +1859,7 @@
         <v>312</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1864,9 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1880,36 +1887,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <f>0-(32+52/60+40/3600)</f>
@@ -1935,12 +1942,12 @@
         <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <f>-(33+6.235/60)</f>
@@ -1966,12 +1973,12 @@
         <v>280</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <f>-33-5.442/60</f>
@@ -1997,12 +2004,12 @@
         <v>280</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <f>-32-48.84/60</f>
@@ -2028,12 +2035,12 @@
         <v>280</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <f>-32-49.401/60</f>
@@ -2059,12 +2066,12 @@
         <v>280</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>-32-43.807/60</f>
@@ -2090,12 +2097,12 @@
         <v>280</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <f>-32-38.437/60</f>
@@ -2121,12 +2128,12 @@
         <v>280</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <f>-32-39.72/60</f>
@@ -2152,12 +2159,12 @@
         <v>280</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <f>-32-46.14/60</f>
@@ -2183,12 +2190,12 @@
         <v>280</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>51.36</v>
@@ -2200,15 +2207,15 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>67</v>
@@ -2217,15 +2224,15 @@
         <v>-158</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>42.27</v>
@@ -2237,15 +2244,15 @@
         <v>2500</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>-29.973199999999999</v>
@@ -2260,12 +2267,12 @@
         <v>14.4</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>-30.045100000000001</v>
@@ -2277,12 +2284,12 @@
         <v>600</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>-29.9876</v>
@@ -2294,12 +2301,12 @@
         <v>850</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>-29.857600000000001</v>
@@ -2311,12 +2318,12 @@
         <v>1300</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>-29.932300000000001</v>
@@ -2328,12 +2335,12 @@
         <v>1500</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>-29.982800000000001</v>
@@ -2345,12 +2352,12 @@
         <v>1700</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>-29.9543</v>
@@ -2365,12 +2372,12 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>-29.974699999999999</v>
@@ -2382,12 +2389,12 @@
         <v>2100</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>-30.0532</v>
@@ -2399,12 +2406,12 @@
         <v>2300</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>34.917999999999999</v>
@@ -2422,12 +2429,12 @@
         <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>34.603999999999999</v>
@@ -2445,12 +2452,12 @@
         <v>140</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>52.57</v>
@@ -2468,15 +2475,15 @@
         <v>480</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>51.72</v>
@@ -2494,15 +2501,15 @@
         <v>580</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>51.63</v>
@@ -2520,15 +2527,15 @@
         <v>525</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>48.58</v>
@@ -2546,15 +2553,15 @@
         <v>510</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>47.27</v>
@@ -2572,15 +2579,15 @@
         <v>420</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>45.03</v>
@@ -2598,15 +2605,15 @@
         <v>550</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>36.979999999999997</v>
@@ -2621,12 +2628,12 @@
         <v>11.6</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>36.984999999999999</v>
@@ -2641,12 +2648,12 @@
         <v>13.2</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>37.01</v>
@@ -2661,12 +2668,12 @@
         <v>15.9</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>36.96</v>
@@ -2681,15 +2688,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>36.94</v>
@@ -2704,15 +2711,15 @@
         <v>19.5</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>36.21</v>
@@ -2727,15 +2734,15 @@
         <v>21.5</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37">
         <v>36.200000000000003</v>
@@ -2750,15 +2757,15 @@
         <v>9.4</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>36.200000000000003</v>
@@ -2773,15 +2780,15 @@
         <v>7.9</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>37.35</v>
@@ -2796,15 +2803,15 @@
         <v>12.6</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>37.36</v>
@@ -2819,15 +2826,15 @@
         <v>9.6</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <f>31+46.881/60</f>
@@ -2847,12 +2854,12 @@
         <v>446</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <f>31+27.299/60</f>
@@ -2872,12 +2879,12 @@
         <v>700</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B43">
         <f>38+49.048/60</f>
@@ -2897,7 +2904,7 @@
         <v>312</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2907,11 +2914,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178:A213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2920,41 +2927,44 @@
     <col min="3" max="3" width="12.7890625" customWidth="1"/>
     <col min="4" max="4" width="15.20703125" customWidth="1"/>
     <col min="5" max="5" width="14.7890625" customWidth="1"/>
-    <col min="6" max="7" width="10.5234375" customWidth="1"/>
+    <col min="6" max="8" width="10.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -2966,18 +2976,21 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="G2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -2989,18 +3002,21 @@
         <v>-1.4</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>0.63</v>
       </c>
       <c r="G3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -3012,18 +3028,21 @@
         <v>-2.5</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="G4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3035,18 +3054,21 @@
         <v>-3</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>0.59</v>
       </c>
       <c r="G5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H5">
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3058,18 +3080,21 @@
         <v>-1.093</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="G6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -3081,18 +3106,21 @@
         <v>-1.2230000000000001</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="G7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H7">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -3104,18 +3132,21 @@
         <v>-3.8180000000000001</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="G8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H8">
         <v>-3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -3127,18 +3158,21 @@
         <v>-3.0409999999999999</v>
       </c>
       <c r="F9">
-        <v>26</v>
+        <v>0.64</v>
       </c>
       <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -3150,18 +3184,21 @@
         <v>-11.41</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H10">
         <v>-9.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -3173,18 +3210,21 @@
         <v>-7.73</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G11">
+        <v>0.02</v>
+      </c>
+      <c r="H11">
         <v>-7</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3196,18 +3236,21 @@
         <v>-3.66</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G12">
+        <v>0.01</v>
+      </c>
+      <c r="H12">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -3219,18 +3262,21 @@
         <v>-8.2799999999999994</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="G13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H13">
         <v>-6.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>47</v>
@@ -3242,18 +3288,21 @@
         <v>-9.51</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H14">
         <v>-7.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -3265,18 +3314,21 @@
         <v>-9.7200000000000006</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H15">
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>85</v>
@@ -3288,18 +3340,21 @@
         <v>-10.87</v>
       </c>
       <c r="F16">
-        <v>21</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="G16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H16">
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -3311,18 +3366,21 @@
         <v>-10.95</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="G17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H17">
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -3334,18 +3392,21 @@
         <v>-11.73</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H18">
         <v>-10.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -3357,18 +3418,21 @@
         <v>-12.35</v>
       </c>
       <c r="F19">
-        <v>21</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19">
         <v>-10.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -3380,18 +3444,21 @@
         <v>-7.31</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G20">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H20">
         <v>-6.6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -3403,18 +3470,21 @@
         <v>-14.43</v>
       </c>
       <c r="F21">
-        <v>27</v>
+        <v>0.64</v>
       </c>
       <c r="G21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
         <v>-11.7</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -3426,18 +3496,21 @@
         <v>-11.33</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="G22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H22">
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.4" customHeight="1">
+    <row r="23" spans="1:8" ht="14.4" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -3449,18 +3522,21 @@
         <v>-13.42</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="G23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H23">
         <v>-11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>30</v>
@@ -3472,18 +3548,21 @@
         <v>-15.09</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="G24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H24">
         <v>-14</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -3495,18 +3574,21 @@
         <v>-15.92</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="G25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H25">
         <v>-14.2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>75</v>
@@ -3518,18 +3600,21 @@
         <v>-15.95</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="G26">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H26">
         <v>-14.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -3541,18 +3626,21 @@
         <v>-16.05</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="G27">
+        <v>0.01</v>
+      </c>
+      <c r="H27">
         <v>-13.9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>90</v>
@@ -3564,18 +3652,21 @@
         <v>-15.5</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="G28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H28">
         <v>-13.8</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>90</v>
@@ -3587,18 +3678,21 @@
         <v>-15.59</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="G29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H29">
         <v>-13.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -3610,18 +3704,21 @@
         <v>-15.42</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H30">
         <v>-13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>50</v>
@@ -3633,18 +3730,21 @@
         <v>-15.41</v>
       </c>
       <c r="F31">
-        <v>21</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="G31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H31">
         <v>-13.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>50</v>
@@ -3656,18 +3756,21 @@
         <v>-16.059999999999999</v>
       </c>
       <c r="F32">
-        <v>22</v>
+        <v>0.66</v>
       </c>
       <c r="G32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H32">
         <v>-14.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1">
+    <row r="33" spans="1:9" ht="14.4" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -3679,18 +3782,21 @@
         <v>-10.66</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="G33">
+        <v>0.01</v>
+      </c>
+      <c r="H33">
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>30</v>
@@ -3702,18 +3808,21 @@
         <v>-11.83</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G34">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H34">
         <v>-10.7</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>45</v>
@@ -3725,18 +3834,21 @@
         <v>-12.84</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="G35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H35">
         <v>-13.4</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>65</v>
@@ -3748,18 +3860,21 @@
         <v>-11.87</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G36">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H36">
         <v>-12</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <v>80</v>
@@ -3771,18 +3886,21 @@
         <v>-14.12</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G37">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H37">
         <v>-12.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -3794,18 +3912,21 @@
         <v>-14.69</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="G38">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H38">
         <v>-14.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>50</v>
@@ -3817,18 +3938,21 @@
         <v>-15.57</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G39">
+        <v>0.03</v>
+      </c>
+      <c r="H39">
         <v>-15.1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1">
         <v>-10.3</v>
@@ -3836,16 +3960,16 @@
       <c r="E40" s="1">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="H40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1">
         <v>1.1000000000000001</v>
@@ -3853,16 +3977,16 @@
       <c r="E41" s="1">
         <v>-13.5</v>
       </c>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1">
         <v>-6.9</v>
@@ -3870,16 +3994,16 @@
       <c r="E42" s="1">
         <v>-11.3</v>
       </c>
-      <c r="H42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="3">
         <v>70</v>
@@ -3890,19 +4014,22 @@
       <c r="E43" s="3">
         <v>-3.21</v>
       </c>
-      <c r="F43" s="3">
-        <v>26</v>
+      <c r="F43" s="7">
+        <v>0.68655726114514282</v>
       </c>
       <c r="G43" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="3">
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3">
         <v>95</v>
@@ -3913,19 +4040,22 @@
       <c r="E44" s="3">
         <v>-3.39</v>
       </c>
-      <c r="F44" s="3">
-        <v>23</v>
+      <c r="F44" s="7">
+        <v>0.69615940260867648</v>
       </c>
       <c r="G44" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H44" s="3">
         <v>-1.44</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>50</v>
@@ -3936,19 +4066,22 @@
       <c r="E45" s="3">
         <v>-7.56</v>
       </c>
-      <c r="F45" s="3">
-        <v>32</v>
+      <c r="F45" s="7">
+        <v>0.66819561842529074</v>
       </c>
       <c r="G45" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H45" s="3">
         <v>-3.82</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3">
         <v>50</v>
@@ -3959,19 +4092,22 @@
       <c r="E46" s="3">
         <v>-6.37</v>
       </c>
-      <c r="F46" s="3">
-        <v>26</v>
+      <c r="F46" s="7">
+        <v>0.68655726114514282</v>
       </c>
       <c r="G46" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H46" s="3">
         <v>-3.78</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3">
         <v>60</v>
@@ -3982,19 +4118,22 @@
       <c r="E47" s="3">
         <v>-9.77</v>
       </c>
-      <c r="F47" s="3">
-        <v>26</v>
+      <c r="F47" s="7">
+        <v>0.68655726114514282</v>
       </c>
       <c r="G47" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H47" s="3">
         <v>-7.26</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3">
         <v>80</v>
@@ -4005,19 +4144,22 @@
       <c r="E48" s="3">
         <v>-10.46</v>
       </c>
-      <c r="F48" s="3">
-        <v>29</v>
+      <c r="F48" s="7">
+        <v>0.67723971187350063</v>
       </c>
       <c r="G48" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H48" s="3">
         <v>-7.21</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" s="3">
         <v>100</v>
@@ -4028,19 +4170,22 @@
       <c r="E49" s="3">
         <v>-10.63</v>
       </c>
-      <c r="F49" s="3">
-        <v>33</v>
+      <c r="F49" s="7">
+        <v>0.66523984207037357</v>
       </c>
       <c r="G49" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H49" s="3">
         <v>-6.68</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3">
         <v>50</v>
@@ -4051,19 +4196,22 @@
       <c r="E50" s="3">
         <v>-9.68</v>
       </c>
-      <c r="F50" s="3">
-        <v>31</v>
+      <c r="F50" s="7">
+        <v>0.67118059714202316</v>
       </c>
       <c r="G50" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H50" s="3">
         <v>-6.16</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3">
         <v>50</v>
@@ -4074,19 +4222,22 @@
       <c r="E51" s="3">
         <v>-11.72</v>
       </c>
-      <c r="F51" s="3">
-        <v>28</v>
+      <c r="F51" s="7">
+        <v>0.68031463911555601</v>
       </c>
       <c r="G51" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H51" s="3">
         <v>-8.83</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3">
         <v>60</v>
@@ -4097,19 +4248,22 @@
       <c r="E52" s="3">
         <v>-10.24</v>
       </c>
-      <c r="F52" s="3">
-        <v>30</v>
+      <c r="F52" s="7">
+        <v>0.67419516417437686</v>
       </c>
       <c r="G52" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H52" s="3">
         <v>-6.96</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3">
         <v>80</v>
@@ -4120,19 +4274,22 @@
       <c r="E53" s="3">
         <v>-10.63</v>
       </c>
-      <c r="F53" s="3">
-        <v>35</v>
+      <c r="F53" s="7">
+        <v>0.65941438387171769</v>
       </c>
       <c r="G53" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H53" s="3">
         <v>-6.38</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3">
         <v>100</v>
@@ -4143,19 +4300,22 @@
       <c r="E54" s="3">
         <v>-11.07</v>
       </c>
-      <c r="F54" s="3">
-        <v>35</v>
+      <c r="F54" s="7">
+        <v>0.65941438387171769</v>
       </c>
       <c r="G54" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="3">
         <v>-6.74</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3">
         <v>50</v>
@@ -4166,19 +4326,22 @@
       <c r="E55" s="3">
         <v>-11.49</v>
       </c>
-      <c r="F55" s="3">
-        <v>31</v>
+      <c r="F55" s="7">
+        <v>0.67118059714202316</v>
       </c>
       <c r="G55" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H55" s="3">
         <v>-7.88</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3">
         <v>50</v>
@@ -4189,19 +4352,22 @@
       <c r="E56" s="3">
         <v>-13.42</v>
       </c>
-      <c r="F56" s="3">
-        <v>26</v>
+      <c r="F56" s="7">
+        <v>0.68655726114514282</v>
       </c>
       <c r="G56" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H56" s="3">
         <v>-10.83</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3">
         <v>21</v>
@@ -4213,18 +4379,21 @@
         <v>-9.3000000000000007</v>
       </c>
       <c r="F57" s="3">
-        <v>12</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="G57" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H57" s="3">
         <v>-10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="3">
         <v>25</v>
@@ -4236,18 +4405,21 @@
         <v>-10.4</v>
       </c>
       <c r="F58" s="3">
-        <v>15</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="G58" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H58" s="3">
         <v>-10.6</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C59" s="3">
         <v>130</v>
@@ -4259,12 +4431,12 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" s="3">
         <v>150</v>
@@ -4276,12 +4448,12 @@
         <v>-9.1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" s="3">
         <v>175</v>
@@ -4293,12 +4465,12 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3">
         <v>175</v>
@@ -4310,12 +4482,12 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C63" s="3">
         <v>135</v>
@@ -4327,12 +4499,12 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C64" s="3">
         <v>155</v>
@@ -4349,7 +4521,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C65" s="3">
         <v>155</v>
@@ -4366,7 +4538,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C66" s="3">
         <v>155</v>
@@ -4383,7 +4555,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C67" s="3">
         <v>180</v>
@@ -4400,7 +4572,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3">
         <v>180</v>
@@ -4417,7 +4589,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C69" s="3">
         <v>130</v>
@@ -4434,7 +4606,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C70" s="3">
         <v>155</v>
@@ -4451,7 +4623,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C71" s="3">
         <v>120</v>
@@ -4468,7 +4640,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" s="3">
         <v>120</v>
@@ -4485,7 +4657,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="3">
         <v>190</v>
@@ -4502,7 +4674,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="3">
         <v>150</v>
@@ -4519,7 +4691,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C75" s="3">
         <v>190</v>
@@ -4536,7 +4708,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C76" s="3">
         <v>145</v>
@@ -4553,7 +4725,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="3">
         <v>145</v>
@@ -4570,7 +4742,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="3">
         <v>150</v>
@@ -4587,7 +4759,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="3">
         <v>170</v>
@@ -4604,7 +4776,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="3">
         <v>160</v>
@@ -4621,7 +4793,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="3">
         <v>160</v>
@@ -4638,7 +4810,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="3">
         <v>160</v>
@@ -4655,7 +4827,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="3">
         <v>160</v>
@@ -4672,7 +4844,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="3">
         <v>130</v>
@@ -4689,7 +4861,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="3">
         <v>130</v>
@@ -4706,7 +4878,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="3">
         <v>130</v>
@@ -4723,7 +4895,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C87" s="3">
         <v>130</v>
@@ -4740,7 +4912,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" s="3">
         <v>75</v>
@@ -4757,7 +4929,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C89" s="3">
         <v>75</v>
@@ -4774,7 +4946,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C90" s="3">
         <v>40</v>
@@ -4791,7 +4963,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C91" s="3">
         <v>50</v>
@@ -4808,7 +4980,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C92" s="1">
         <v>70</v>
@@ -4825,7 +4997,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C93" s="1">
         <v>35</v>
@@ -4842,7 +5014,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C94" s="1">
         <v>35</v>
@@ -4859,7 +5031,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C95" s="1">
         <v>60</v>
@@ -4876,7 +5048,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C96" s="1">
         <v>145</v>
@@ -4888,12 +5060,12 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C97" s="1">
         <v>145</v>
@@ -4905,12 +5077,12 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C98" s="1">
         <v>130</v>
@@ -4922,12 +5094,12 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C99" s="1">
         <v>25</v>
@@ -4939,12 +5111,12 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C100">
         <v>90</v>
@@ -4956,12 +5128,12 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C101" s="1">
         <v>110</v>
@@ -4973,12 +5145,12 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C102" s="1">
         <v>120</v>
@@ -4990,12 +5162,12 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C103" s="1">
         <v>120</v>
@@ -5007,12 +5179,12 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C104" s="1">
         <v>110</v>
@@ -5024,12 +5196,12 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C105" s="1">
         <v>70</v>
@@ -5041,12 +5213,12 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C106" s="1">
         <v>135</v>
@@ -5058,12 +5230,12 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C107" s="1">
         <v>100</v>
@@ -5075,12 +5247,12 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C108" s="1">
         <v>90</v>
@@ -5092,12 +5264,12 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C109" s="1">
         <v>150</v>
@@ -5109,12 +5281,12 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C110" s="1">
         <v>150</v>
@@ -5125,16 +5297,16 @@
       <c r="E110">
         <v>-7.5</v>
       </c>
-      <c r="H110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C111" s="1">
         <v>120</v>
@@ -5146,12 +5318,12 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C112" s="1">
         <v>190</v>
@@ -5168,7 +5340,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C113" s="1">
         <v>105</v>
@@ -5185,7 +5357,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C114" s="1">
         <v>95</v>
@@ -5202,7 +5374,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C115" s="1">
         <v>100</v>
@@ -5219,7 +5391,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C116" s="1">
         <v>95</v>
@@ -5236,7 +5408,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C117" s="1">
         <v>110</v>
@@ -5253,7 +5425,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C118" s="1">
         <v>110</v>
@@ -5270,7 +5442,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C119" s="1">
         <v>115</v>
@@ -5287,7 +5459,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C120" s="1">
         <v>110</v>
@@ -5304,7 +5476,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C121" s="1">
         <v>160</v>
@@ -5321,7 +5493,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C122" s="1">
         <v>85</v>
@@ -5338,7 +5510,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C123" s="1">
         <v>75</v>
@@ -5355,7 +5527,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C124" s="1">
         <v>35</v>
@@ -5372,7 +5544,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C125" s="1">
         <v>35</v>
@@ -5389,7 +5561,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C126" s="1">
         <v>75</v>
@@ -5406,7 +5578,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C127" s="1">
         <v>30</v>
@@ -5423,7 +5595,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C128" s="1">
         <v>60</v>
@@ -5440,7 +5612,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C129" s="1">
         <v>20</v>
@@ -5457,7 +5629,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C130" s="1">
         <v>55</v>
@@ -5474,7 +5646,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C131" s="1">
         <v>55</v>
@@ -5491,7 +5663,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C132" s="1">
         <v>70</v>
@@ -5508,7 +5680,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C133" s="1">
         <v>70</v>
@@ -5525,7 +5697,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C134" s="1">
         <v>65</v>
@@ -5542,7 +5714,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C135" s="1">
         <v>65</v>
@@ -5559,7 +5731,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C136" s="1">
         <v>180</v>
@@ -5576,7 +5748,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C137" s="1">
         <v>115</v>
@@ -5593,7 +5765,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C138" s="1">
         <v>40</v>
@@ -5610,7 +5782,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C139" s="1">
         <v>100</v>
@@ -5627,7 +5799,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C140" s="1">
         <v>60</v>
@@ -5644,7 +5816,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C141" s="1">
         <v>110</v>
@@ -5661,7 +5833,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C142" s="1">
         <v>110</v>
@@ -5678,7 +5850,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C143" s="1">
         <v>120</v>
@@ -5695,7 +5867,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C144" s="1">
         <v>105</v>
@@ -5712,7 +5884,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C145" s="1">
         <v>105</v>
@@ -5729,7 +5901,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C146" s="1">
         <v>105</v>
@@ -5746,7 +5918,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C147" s="1">
         <v>135</v>
@@ -5763,7 +5935,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C148" s="1">
         <v>135</v>
@@ -5780,7 +5952,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C149" s="1">
         <v>135</v>
@@ -5797,7 +5969,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C150" s="1">
         <v>130</v>
@@ -5814,7 +5986,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C151" s="1">
         <v>130</v>
@@ -5831,7 +6003,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D152" s="5">
         <v>-8.3000000000000007</v>
@@ -5845,7 +6017,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D153" s="5">
         <v>-6.9</v>
@@ -5859,7 +6031,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D154" s="5">
         <v>-6.5</v>
@@ -5873,7 +6045,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D155" s="5">
         <v>-7.2</v>
@@ -5887,7 +6059,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D156" s="5">
         <v>-6.3</v>
@@ -5901,7 +6073,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D157" s="5">
         <v>-5.8</v>
@@ -5915,7 +6087,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D158" s="5">
         <v>-5.5</v>
@@ -5929,7 +6101,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D159" s="5">
         <v>-2</v>
@@ -5943,7 +6115,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D160" s="5">
         <v>-0.9</v>
@@ -5957,7 +6129,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D161" s="5">
         <v>-1.8</v>
@@ -5971,7 +6143,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D162" s="5">
         <v>-2.4</v>
@@ -5985,7 +6157,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D163" s="5">
         <v>-1.3</v>
@@ -5999,7 +6171,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D164" s="5">
         <v>1.5</v>
@@ -6013,7 +6185,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D165" s="5">
         <v>1.3</v>
@@ -6027,7 +6199,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D166" s="5">
         <v>0.5</v>
@@ -6041,7 +6213,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D167" s="5">
         <v>-1.7</v>
@@ -6055,7 +6227,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D168" s="5">
         <v>-0.4</v>
@@ -6069,7 +6241,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D169" s="5">
         <v>0.9</v>
@@ -6083,7 +6255,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D170" s="5">
         <v>-7.9</v>
@@ -6097,7 +6269,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D171" s="5">
         <v>-8.1</v>
@@ -6111,7 +6283,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D172" s="5">
         <v>-8.1</v>
@@ -6125,7 +6297,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D173" s="5">
         <v>-7.5</v>
@@ -6139,7 +6311,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D174" s="5">
         <v>-8</v>
@@ -6153,7 +6325,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D175" s="5">
         <v>-8</v>
@@ -6167,7 +6339,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D176" s="5">
         <v>-7.7</v>
@@ -6176,12 +6348,12 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D177" s="5">
         <v>-6.1</v>
@@ -6190,12 +6362,12 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D178" s="5">
         <v>-6.1</v>
@@ -6204,12 +6376,12 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D179" s="5">
         <v>-8.1</v>
@@ -6218,12 +6390,12 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D180" s="5">
         <v>-7.5</v>
@@ -6232,12 +6404,12 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D181" s="5">
         <v>-7.7</v>
@@ -6246,12 +6418,12 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C182">
         <v>60</v>
@@ -6263,15 +6435,18 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="F182" s="6">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>0.67</v>
+      </c>
+      <c r="G182" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C183">
         <v>70</v>
@@ -6283,15 +6458,18 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="F183">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>0.67</v>
+      </c>
+      <c r="G183" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C184">
         <v>90</v>
@@ -6303,15 +6481,18 @@
         <v>-8.4</v>
       </c>
       <c r="F184">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>0.66</v>
+      </c>
+      <c r="G184" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C185">
         <v>135</v>
@@ -6323,15 +6504,18 @@
         <v>-7.7</v>
       </c>
       <c r="F185">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>0.68</v>
+      </c>
+      <c r="G185" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C186">
         <v>25</v>
@@ -6343,15 +6527,18 @@
         <v>-6</v>
       </c>
       <c r="F186">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>0.69</v>
+      </c>
+      <c r="G186" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C187">
         <v>70</v>
@@ -6363,15 +6550,18 @@
         <v>-6.5</v>
       </c>
       <c r="F187">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>0.69</v>
+      </c>
+      <c r="G187" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C188">
         <v>75</v>
@@ -6383,15 +6573,18 @@
         <v>-6.3</v>
       </c>
       <c r="F188">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G188" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C189">
         <v>92</v>
@@ -6403,15 +6596,18 @@
         <v>-6.9</v>
       </c>
       <c r="F189">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G189" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C190">
         <v>70</v>
@@ -6423,15 +6619,18 @@
         <v>-7.9</v>
       </c>
       <c r="F190" s="6">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>0.69</v>
+      </c>
+      <c r="G190" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C191">
         <v>70</v>
@@ -6443,15 +6642,18 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="F191">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>0.7</v>
+      </c>
+      <c r="G191" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C192">
         <v>70</v>
@@ -6463,15 +6665,18 @@
         <v>-10.1</v>
       </c>
       <c r="F192">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>0.72</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C193">
         <v>70</v>
@@ -6483,15 +6688,18 @@
         <v>-10</v>
       </c>
       <c r="F193">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C194">
         <v>90</v>
@@ -6503,15 +6711,18 @@
         <v>-8.9</v>
       </c>
       <c r="F194">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C195">
         <v>90</v>
@@ -6523,15 +6734,18 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="F195">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G195" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C196">
         <v>90</v>
@@ -6543,15 +6757,18 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="F196">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>0.69</v>
+      </c>
+      <c r="G196" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C197">
         <v>90</v>
@@ -6563,15 +6780,18 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="F197">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>0.73</v>
+      </c>
+      <c r="G197" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C198">
         <v>110</v>
@@ -6583,15 +6803,18 @@
         <v>-10.1</v>
       </c>
       <c r="F198">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C199">
         <v>110</v>
@@ -6603,15 +6826,18 @@
         <v>-8.6</v>
       </c>
       <c r="F199">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>0.72</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C200">
         <v>110</v>
@@ -6623,15 +6849,18 @@
         <v>-8.5</v>
       </c>
       <c r="F200">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G200" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C201">
         <v>130</v>
@@ -6643,15 +6872,18 @@
         <v>-8.9</v>
       </c>
       <c r="F201">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>0.72</v>
+      </c>
+      <c r="G201" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C202">
         <v>130</v>
@@ -6663,15 +6895,18 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="F202">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>0.72</v>
+      </c>
+      <c r="G202" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C203">
         <v>130</v>
@@ -6683,15 +6918,18 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="F203">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>0.72</v>
+      </c>
+      <c r="G203" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C204">
         <v>130</v>
@@ -6703,15 +6941,18 @@
         <v>-8.6999999999999993</v>
       </c>
       <c r="F204">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G204" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C205">
         <v>150</v>
@@ -6723,15 +6964,18 @@
         <v>-7.1</v>
       </c>
       <c r="F205">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>0.67</v>
+      </c>
+      <c r="G205" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C206">
         <v>150</v>
@@ -6743,15 +6987,18 @@
         <v>-7.9</v>
       </c>
       <c r="F206">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G206" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C207">
         <v>150</v>
@@ -6763,15 +7010,18 @@
         <v>-7.9</v>
       </c>
       <c r="F207">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>0.74</v>
+      </c>
+      <c r="G207" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C208">
         <v>150</v>
@@ -6783,15 +7033,18 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="F208">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>0.72</v>
+      </c>
+      <c r="G208" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C209">
         <v>150</v>
@@ -6803,15 +7056,18 @@
         <v>-8.4</v>
       </c>
       <c r="F209">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G209" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C210">
         <v>75</v>
@@ -6823,15 +7079,18 @@
         <v>-16.2</v>
       </c>
       <c r="F210" s="6">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>0.63</v>
+      </c>
+      <c r="G210" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C211">
         <v>120</v>
@@ -6843,15 +7102,18 @@
         <v>-14</v>
       </c>
       <c r="F211">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>0.71</v>
+      </c>
+      <c r="G211" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C212">
         <v>120</v>
@@ -6863,15 +7125,18 @@
         <v>-11.1</v>
       </c>
       <c r="F212" s="6">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>0.73</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C213">
         <v>45</v>
@@ -6883,7 +7148,10 @@
         <v>-11.4</v>
       </c>
       <c r="F213">
-        <v>24.3</v>
+        <v>0.7</v>
+      </c>
+      <c r="G213" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6908,13 +7176,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
